--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429906C3-ECB8-FF45-AFE3-95C2640059E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960EEF11-48B1-D64E-B672-EF82DDFFDCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="8340" windowWidth="28800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -98,9 +98,6 @@
     <t>C:</t>
   </si>
   <si>
-    <t>13 .. N step 3</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t>Disease Progression</t>
+  </si>
+  <si>
+    <t>Follow Up</t>
+  </si>
+  <si>
+    <t>1 .. N</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,7 +532,7 @@
     <col min="4" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -541,19 +544,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="5" t="s">
@@ -563,8 +572,11 @@
         <v>6</v>
       </c>
       <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="5" t="s">
@@ -574,19 +586,25 @@
         <v>16</v>
       </c>
       <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="5" t="s">
@@ -598,8 +616,11 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
@@ -611,21 +632,27 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -633,18 +660,18 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -652,56 +679,68 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960EEF11-48B1-D64E-B672-EF82DDFFDCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C4B45-CD7B-3E49-A59A-C3FBFC857B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="8340" windowWidth="28800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,8 +699,8 @@
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -719,8 +719,8 @@
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -739,8 +739,8 @@
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C4B45-CD7B-3E49-A59A-C3FBFC857B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE78A7-D850-144D-9929-4569F5DFC57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="study" sheetId="2" r:id="rId1"/>
+    <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
+    <sheet name="soa" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -101,18 +104,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>BC:PE 1</t>
-  </si>
-  <si>
-    <t>BC:PE 2</t>
-  </si>
-  <si>
-    <t>BC:Weight</t>
-  </si>
-  <si>
-    <t>BC:Height</t>
-  </si>
-  <si>
     <t>BC/Profile</t>
   </si>
   <si>
@@ -123,13 +114,118 @@
   </si>
   <si>
     <t>1 .. N</t>
+  </si>
+  <si>
+    <t>BC: PE 1, BC: PE 2, BC: Weight, BC: Height</t>
+  </si>
+  <si>
+    <t>studyTitle</t>
+  </si>
+  <si>
+    <t>studyVersion</t>
+  </si>
+  <si>
+    <t>studyType</t>
+  </si>
+  <si>
+    <t>studyPhase</t>
+  </si>
+  <si>
+    <t>Simple Test 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>C98388=Interventional Study</t>
+  </si>
+  <si>
+    <t>C15602=Phase III Trial</t>
+  </si>
+  <si>
+    <t>organisationIdentifierScheme</t>
+  </si>
+  <si>
+    <t>organisationIdentifier</t>
+  </si>
+  <si>
+    <t>organisationName</t>
+  </si>
+  <si>
+    <t>organisationType</t>
+  </si>
+  <si>
+    <t>studyIdentifier</t>
+  </si>
+  <si>
+    <t>USGOV</t>
+  </si>
+  <si>
+    <t>CT-GOV</t>
+  </si>
+  <si>
+    <t>ClinicalTrials.gov</t>
+  </si>
+  <si>
+    <t>Registry</t>
+  </si>
+  <si>
+    <t>NCT12345678</t>
+  </si>
+  <si>
+    <t>therapeuticAreas</t>
+  </si>
+  <si>
+    <t>Not supported yet</t>
+  </si>
+  <si>
+    <t>studyDesignRationale</t>
+  </si>
+  <si>
+    <t>"Study design rationale put here"</t>
+  </si>
+  <si>
+    <t>studyDesignBlindingScheme</t>
+  </si>
+  <si>
+    <t>C49659=OPEN LABEL</t>
+  </si>
+  <si>
+    <t>trialIntentTypes</t>
+  </si>
+  <si>
+    <t>C15714=BASIC SCIENCE, C139174=DEVICE FEASIBILITY</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>C12345=Observational</t>
+  </si>
+  <si>
+    <t>interventionModel</t>
+  </si>
+  <si>
+    <t>C12346=None</t>
+  </si>
+  <si>
+    <t>Follow-Up</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>Placebo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +235,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -172,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -190,6 +294,26 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -514,14 +638,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED78087-5EC8-E249-9405-08BCDA276930}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="4" width="30.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370D0E30-FAA2-1D42-9C6C-E637CF86137F}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A66060-C34D-B74B-9573-D0BFE7F2808B}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,80 +900,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="7"/>
+      <c r="D2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="15"/>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="D5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="17"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
@@ -621,8 +988,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
@@ -633,12 +1000,12 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
@@ -660,18 +1027,18 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -681,66 +1048,6 @@
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE78A7-D850-144D-9929-4569F5DFC57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B54394F-905D-E846-9A95-F53F29E5C131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -219,13 +219,16 @@
   </si>
   <si>
     <t>Placebo</t>
+  </si>
+  <si>
+    <t>organisationAddress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -245,6 +248,14 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -307,6 +318,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -314,9 +328,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -325,6 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,10 +698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370D0E30-FAA2-1D42-9C6C-E637CF86137F}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,9 +710,10 @@
     <col min="2" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
@@ -716,8 +729,11 @@
       <c r="E1" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -757,67 +773,67 @@
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
@@ -887,7 +903,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B54394F-905D-E846-9A95-F53F29E5C131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D29987-54F3-2A49-8AB6-9F440B9982FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -137,12 +137,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>C98388=Interventional Study</t>
-  </si>
-  <si>
-    <t>C15602=Phase III Trial</t>
-  </si>
-  <si>
     <t>organisationIdentifierScheme</t>
   </si>
   <si>
@@ -222,6 +216,12 @@
   </si>
   <si>
     <t>organisationAddress</t>
+  </si>
+  <si>
+    <t>Interventional Study</t>
+  </si>
+  <si>
+    <t>C15602</t>
   </si>
 </sst>
 </file>
@@ -318,6 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -336,7 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED78087-5EC8-E249-9405-08BCDA276930}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,10 +685,10 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370D0E30-FAA2-1D42-9C6C-E637CF86137F}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -715,39 +715,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>60</v>
+      <c r="F1" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -771,102 +771,102 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -916,80 +916,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1004,8 +1004,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1020,8 +1020,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D29987-54F3-2A49-8AB6-9F440B9982FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78312742-510C-A54C-87A4-7D5AE7D8E9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
     <sheet name="soa" sheetId="1" r:id="rId4"/>
+    <sheet name="indications_interventions" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -222,6 +223,39 @@
   </si>
   <si>
     <t>C15602</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>codes</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>An indication</t>
+  </si>
+  <si>
+    <t>SNOMED:12345=Indication1</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>An intervention</t>
+  </si>
+  <si>
+    <t>ICD-10: X = Y, SNOMED: A=B</t>
+  </si>
+  <si>
+    <t>SNOMED:345678=Indication2</t>
+  </si>
+  <si>
+    <t>ICD-10: DD=CC, SNOMED: A=B</t>
   </si>
 </sst>
 </file>
@@ -653,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED78087-5EC8-E249-9405-08BCDA276930}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1078,4 +1112,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C24824-A10F-9347-9089-9D0DA7411C4F}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78312742-510C-A54C-87A4-7D5AE7D8E9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D809C75A-31BD-8F48-AE3F-1AD6C393372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
     <sheet name="soa" sheetId="1" r:id="rId4"/>
     <sheet name="indications_interventions" sheetId="5" r:id="rId5"/>
+    <sheet name="studyDesignPopulation" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -256,6 +257,51 @@
   </si>
   <si>
     <t>ICD-10: DD=CC, SNOMED: A=B</t>
+  </si>
+  <si>
+    <t>populationDescription</t>
+  </si>
+  <si>
+    <t>plannedNumberOfParticipants</t>
+  </si>
+  <si>
+    <t>plannedMinimumAgeOfParticipants</t>
+  </si>
+  <si>
+    <t>plannedMaximumAgeOfParticipants</t>
+  </si>
+  <si>
+    <t>plannedSexOfParticipants</t>
+  </si>
+  <si>
+    <t>Pop 1</t>
+  </si>
+  <si>
+    <t>18 years</t>
+  </si>
+  <si>
+    <t>40 years</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>Pop 2</t>
+  </si>
+  <si>
+    <t>60 years</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Pop 3</t>
+  </si>
+  <si>
+    <t>70 years</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C24824-A10F-9347-9089-9D0DA7411C4F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -1186,4 +1232,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB67A60-2FDF-274A-9BDA-F68BFE83F7C3}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D809C75A-31BD-8F48-AE3F-1AD6C393372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7720D0-ED08-7E41-825A-EF69038629D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
     <sheet name="soa" sheetId="1" r:id="rId4"/>
-    <sheet name="indications_interventions" sheetId="5" r:id="rId5"/>
-    <sheet name="studyDesignPopulation" sheetId="6" r:id="rId6"/>
+    <sheet name="studyDesignII" sheetId="5" r:id="rId5"/>
+    <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7720D0-ED08-7E41-825A-EF69038629D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD53769-869D-354F-9F02-7AA5875DC379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="soa" sheetId="1" r:id="rId4"/>
     <sheet name="studyDesignII" sheetId="5" r:id="rId5"/>
     <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
+    <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -302,6 +303,33 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>objectiveDescription</t>
+  </si>
+  <si>
+    <t>objectiveLevel</t>
+  </si>
+  <si>
+    <t>endpointDescription</t>
+  </si>
+  <si>
+    <t>endpointPurposeDescription</t>
+  </si>
+  <si>
+    <t>endpointLevel</t>
+  </si>
+  <si>
+    <t>Study Primary Objective</t>
+  </si>
+  <si>
+    <t>Primary Endpoint</t>
+  </si>
+  <si>
+    <t>Obj Desc</t>
+  </si>
+  <si>
+    <t>End Desc</t>
   </si>
 </sst>
 </file>
@@ -367,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -416,6 +444,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB67A60-2FDF-274A-9BDA-F68BFE83F7C3}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -1322,4 +1353,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC1BB23-B51E-2F4B-AFA7-11533540F2B5}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="34.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD53769-869D-354F-9F02-7AA5875DC379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8336EC6-9748-904E-BFC8-F34145D49254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="studyDesignII" sheetId="5" r:id="rId5"/>
     <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
     <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
+    <sheet name="studyDesignEstimands" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -330,13 +331,73 @@
   </si>
   <si>
     <t>End Desc</t>
+  </si>
+  <si>
+    <t>xref</t>
+  </si>
+  <si>
+    <t>summaryMeasure</t>
+  </si>
+  <si>
+    <t>intercurrentEventName</t>
+  </si>
+  <si>
+    <t>intercurrentEventDescription</t>
+  </si>
+  <si>
+    <t>intercurrentEventStrategy</t>
+  </si>
+  <si>
+    <t>treatmentXref</t>
+  </si>
+  <si>
+    <t>endpointXref</t>
+  </si>
+  <si>
+    <t>EST1</t>
+  </si>
+  <si>
+    <t>Survival of all patients</t>
+  </si>
+  <si>
+    <t>ITT</t>
+  </si>
+  <si>
+    <t>termination</t>
+  </si>
+  <si>
+    <t>IC Event Description</t>
+  </si>
+  <si>
+    <t>Patients with out of range lab values before dosing will be excluded</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>END1</t>
+  </si>
+  <si>
+    <t>IND1</t>
+  </si>
+  <si>
+    <t>IND2</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>objectiveXref</t>
+  </si>
+  <si>
+    <t>OBJ1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,6 +423,21 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -395,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -427,6 +503,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -445,7 +528,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -884,67 +973,67 @@
       <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
@@ -1027,80 +1116,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1115,8 +1204,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1131,8 +1220,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1193,70 +1282,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C24824-A10F-9347-9089-9D0DA7411C4F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1357,46 +1461,133 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC1BB23-B51E-2F4B-AFA7-11533540F2B5}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="34.1640625" customWidth="1"/>
+    <col min="2" max="7" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742C28E4-40F4-3942-8A73-FBE0EFF56968}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="61.83203125" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8336EC6-9748-904E-BFC8-F34145D49254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF8F53-406D-514B-894B-05A93DA1B2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="120">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -391,6 +391,18 @@
   </si>
   <si>
     <t>OBJ1</t>
+  </si>
+  <si>
+    <t>studyAcronym</t>
+  </si>
+  <si>
+    <t>SIMPLE</t>
+  </si>
+  <si>
+    <t>studyRationale</t>
+  </si>
+  <si>
+    <t>A simple test</t>
   </si>
 </sst>
 </file>
@@ -511,6 +523,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -527,15 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,44 +863,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED78087-5EC8-E249-9405-08BCDA276930}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="4" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -973,67 +1004,67 @@
       <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
@@ -1116,80 +1147,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1204,8 +1235,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1220,8 +1251,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC1BB23-B51E-2F4B-AFA7-11533540F2B5}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
@@ -1482,7 +1513,7 @@
       <c r="C1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -1496,7 +1527,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1505,7 +1536,7 @@
       <c r="C2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="18" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="7" t="s">

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF8F53-406D-514B-894B-05A93DA1B2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA7C747-6B1F-634D-BE27-9C115DB7601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -403,6 +403,51 @@
   </si>
   <si>
     <t>A simple test</t>
+  </si>
+  <si>
+    <t>briefTitle</t>
+  </si>
+  <si>
+    <t>officialTitle</t>
+  </si>
+  <si>
+    <t>publicTitle</t>
+  </si>
+  <si>
+    <t>scientificTitle</t>
+  </si>
+  <si>
+    <t>protocolVersion</t>
+  </si>
+  <si>
+    <t>protocolAmendment</t>
+  </si>
+  <si>
+    <t>protocolEffectiveDate</t>
+  </si>
+  <si>
+    <t>protocolStatus</t>
+  </si>
+  <si>
+    <t>Something Brief</t>
+  </si>
+  <si>
+    <t>Something Very Official</t>
+  </si>
+  <si>
+    <t>Something Public</t>
+  </si>
+  <si>
+    <t>Somethign Clever</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Somethign Clever But New</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -483,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -547,6 +592,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -863,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED78087-5EC8-E249-9405-08BCDA276930}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,7 +928,7 @@
     <col min="1" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -882,7 +936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -890,7 +944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
@@ -898,7 +952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -906,7 +960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>116</v>
       </c>
@@ -914,12 +968,88 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="27">
+        <v>40179</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="27">
+        <v>40544</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA7C747-6B1F-634D-BE27-9C115DB7601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11C4790-633B-1040-9F74-36BED82A4CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="136">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>businessTherapeuticAreas</t>
   </si>
 </sst>
 </file>
@@ -576,6 +579,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -592,15 +604,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -917,15 +920,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED78087-5EC8-E249-9405-08BCDA276930}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -976,54 +981,35 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B9" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C9" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D9" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E9" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F9" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H9" s="20" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="27">
-        <v>40179</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1037,18 +1023,42 @@
         <v>130</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="21">
+        <v>40179</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G11" s="21">
         <v>40544</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1134,67 +1144,67 @@
       <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
@@ -1277,80 +1287,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1365,8 +1375,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1381,8 +1391,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11C4790-633B-1040-9F74-36BED82A4CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB52FE5-C870-CA42-9B8B-11EA74996A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -186,27 +186,15 @@
     <t>studyDesignBlindingScheme</t>
   </si>
   <si>
-    <t>C49659=OPEN LABEL</t>
-  </si>
-  <si>
     <t>trialIntentTypes</t>
   </si>
   <si>
-    <t>C15714=BASIC SCIENCE, C139174=DEVICE FEASIBILITY</t>
-  </si>
-  <si>
     <t>trialTypes</t>
   </si>
   <si>
-    <t>C12345=Observational</t>
-  </si>
-  <si>
     <t>interventionModel</t>
   </si>
   <si>
-    <t>C12346=None</t>
-  </si>
-  <si>
     <t>Follow-Up</t>
   </si>
   <si>
@@ -451,6 +439,18 @@
   </si>
   <si>
     <t>businessTherapeuticAreas</t>
+  </si>
+  <si>
+    <t>OPEN LABEL</t>
+  </si>
+  <si>
+    <t>BASIC SCIENCE,    DEVICE FEASIBILITY</t>
+  </si>
+  <si>
+    <t>Efficacy Study</t>
+  </si>
+  <si>
+    <t>C82639</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED78087-5EC8-E249-9405-08BCDA276930}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -962,68 +962,68 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="G9" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="H9" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1033,33 +1033,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G11" s="21">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1101,7 @@
         <v>36</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A66060-C34D-B74B-9573-D0BFE7F2808B}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1167,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1197,10 +1197,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -1211,33 +1211,33 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1467,72 +1467,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1559,70 +1559,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1645,45 +1645,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1711,54 +1711,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>105</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB52FE5-C870-CA42-9B8B-11EA74996A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C1657C-04E2-294C-A987-1D57B045EAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
     <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
     <sheet name="studyDesignEstimands" sheetId="8" r:id="rId8"/>
+    <sheet name="configuration" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="139">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -451,6 +452,15 @@
   </si>
   <si>
     <t>C82639</t>
+  </si>
+  <si>
+    <t>CT Version</t>
+  </si>
+  <si>
+    <t>SNOMED=January 31, 2018</t>
+  </si>
+  <si>
+    <t>SPONSOR =   12</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A66060-C34D-B74B-9573-D0BFE7F2808B}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1764,4 +1774,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6879B0C-C67A-EA45-AA03-0AE5CE49C17A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C1657C-04E2-294C-A987-1D57B045EAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A5C338-8E92-B44D-9B2A-86CF61C8D495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>ClinicalTrials.gov</t>
   </si>
   <si>
-    <t>Registry</t>
-  </si>
-  <si>
     <t>NCT12345678</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>SPONSOR =   12</t>
+  </si>
+  <si>
+    <t>Study Registry</t>
   </si>
 </sst>
 </file>
@@ -964,7 +964,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -972,68 +972,68 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
         <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1043,33 +1043,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>126</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11" s="21">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370D0E30-FAA2-1D42-9C6C-E637CF86137F}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,7 +1111,7 @@
         <v>36</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1125,10 +1125,10 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1152,10 +1152,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>43</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -1221,33 +1221,33 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1477,72 +1477,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1569,70 +1569,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
         <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
         <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1655,45 +1655,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1721,54 +1721,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>103</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>104</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>105</v>
-      </c>
-      <c r="H2" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1780,7 +1780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6879B0C-C67A-EA45-AA03-0AE5CE49C17A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1791,18 +1791,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
         <v>136</v>
-      </c>
-      <c r="B1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A5C338-8E92-B44D-9B2A-86CF61C8D495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A972BA-BB3E-384E-A0B7-72593F4C6E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -172,9 +172,6 @@
     <t>therapeuticAreas</t>
   </si>
   <si>
-    <t>Not supported yet</t>
-  </si>
-  <si>
     <t>studyDesignRationale</t>
   </si>
   <si>
@@ -461,13 +458,16 @@
   </si>
   <si>
     <t>Study Registry</t>
+  </si>
+  <si>
+    <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -477,14 +477,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -572,21 +564,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -601,9 +593,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -615,6 +604,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,7 +956,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -972,68 +964,68 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
         <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
         <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1043,33 +1035,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="21">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1081,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370D0E30-FAA2-1D42-9C6C-E637CF86137F}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1111,7 +1103,7 @@
         <v>36</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1125,7 +1117,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -1140,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A66060-C34D-B74B-9573-D0BFE7F2808B}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1154,41 +1146,41 @@
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1196,10 +1188,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1207,10 +1199,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -1221,33 +1213,33 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -1297,80 +1289,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1385,8 +1377,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1401,8 +1393,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1477,72 +1469,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1569,70 +1561,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" t="s">
         <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1655,45 +1647,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1721,54 +1713,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>102</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>103</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1791,18 +1783,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A972BA-BB3E-384E-A0B7-72593F4C6E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C18EBA-FF74-F345-B70E-F61B8006AC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="680" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="32620" yWindow="1280" windowWidth="28800" windowHeight="16580" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="soa" sheetId="1" r:id="rId4"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId4"/>
     <sheet name="studyDesignII" sheetId="5" r:id="rId5"/>
     <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
     <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="141">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -461,6 +461,12 @@
   </si>
   <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
+  </si>
+  <si>
+    <t>mainTimeline</t>
+  </si>
+  <si>
+    <t>otherTimelines</t>
   </si>
 </sst>
 </file>
@@ -594,6 +600,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -604,9 +613,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A66060-C34D-B74B-9573-D0BFE7F2808B}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1146,34 +1152,34 @@
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1208,56 +1214,78 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -1276,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1289,80 +1317,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1377,8 +1405,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1393,8 +1421,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C18EBA-FF74-F345-B70E-F61B8006AC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B303D-E828-894D-90EC-D43496EFE41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32620" yWindow="1280" windowWidth="28800" windowHeight="16580" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -44,10 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="141">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
   <si>
     <t>Epoch</t>
   </si>
@@ -467,6 +464,24 @@
   </si>
   <si>
     <t>otherTimelines</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Main Timeline</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>This is the main timeline for the study design.</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Potential subject identified</t>
   </si>
 </sst>
 </file>
@@ -539,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -608,11 +623,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,95 +967,95 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
         <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
         <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1041,33 +1065,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>124</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="21">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1094,39 +1118,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1150,10 +1174,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -1161,10 +1185,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>43</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1172,10 +1196,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1183,10 +1207,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1194,10 +1218,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1205,10 +1229,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -1216,10 +1240,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -1227,7 +1251,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -1236,36 +1260,36 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -1305,7 +1329,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1317,161 +1341,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>143</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A1:B8"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
@@ -1497,72 +1530,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1589,70 +1622,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" t="s">
         <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
         <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
         <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1675,45 +1708,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1741,54 +1774,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>98</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>102</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>103</v>
-      </c>
-      <c r="H2" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1811,18 +1844,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B303D-E828-894D-90EC-D43496EFE41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32CCC91-8C9B-2441-B05D-516E5256F345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32620" yWindow="1280" windowWidth="28800" windowHeight="16580" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
     <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
     <sheet name="studyDesignEstimands" sheetId="8" r:id="rId8"/>
-    <sheet name="configuration" sheetId="9" r:id="rId9"/>
+    <sheet name="studyDesignProcedures" sheetId="10" r:id="rId9"/>
+    <sheet name="configuration" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="157">
   <si>
     <t>Epoch</t>
   </si>
@@ -118,9 +119,6 @@
     <t>1 .. N</t>
   </si>
   <si>
-    <t>BC: PE 1, BC: PE 2, BC: Weight, BC: Height</t>
-  </si>
-  <si>
     <t>studyTitle</t>
   </si>
   <si>
@@ -482,6 +480,42 @@
   </si>
   <si>
     <t>Potential subject identified</t>
+  </si>
+  <si>
+    <t>Only do it they have man flu</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>SNOMED: 12345679=Test</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>PR2</t>
+  </si>
+  <si>
+    <t>SNOMED: 12345678=Test</t>
+  </si>
+  <si>
+    <t>PR1</t>
+  </si>
+  <si>
+    <t>procedureIsConditionalReason</t>
+  </si>
+  <si>
+    <t>procedureIsConditional</t>
+  </si>
+  <si>
+    <t>procedureCode</t>
+  </si>
+  <si>
+    <t>procedureType</t>
+  </si>
+  <si>
+    <t>BC: PE 1, BC: PE 2, BC: Weight, BC: Height, PR:PR2</t>
   </si>
 </sst>
 </file>
@@ -554,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -611,6 +645,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -626,17 +672,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,95 +1007,95 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
         <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
         <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1065,33 +1105,67 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>123</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" s="21">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6879B0C-C67A-EA45-AA03-0AE5CE49C17A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1118,39 +1192,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1174,122 +1248,122 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+        <v>42</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+        <v>43</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+        <v>137</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+        <v>138</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -1329,7 +1403,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1341,90 +1415,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>141</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>142</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>143</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>145</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1439,8 +1513,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1455,8 +1529,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -1530,72 +1604,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1622,70 +1696,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
         <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
         <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1708,45 +1782,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1774,54 +1848,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>101</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1830,33 +1904,70 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6879B0C-C67A-EA45-AA03-0AE5CE49C17A}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E538B10-DB98-4A4F-8490-F493F5759FB8}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>133</v>
+        <v>88</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32CCC91-8C9B-2441-B05D-516E5256F345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5C1333-2A9B-A447-B105-6F566030A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="43700" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -170,9 +170,6 @@
     <t>studyDesignRationale</t>
   </si>
   <si>
-    <t>"Study design rationale put here"</t>
-  </si>
-  <si>
     <t>studyDesignBlindingScheme</t>
   </si>
   <si>
@@ -516,6 +513,9 @@
   </si>
   <si>
     <t>BC: PE 1, BC: PE 2, BC: Weight, BC: Height, PR:PR2</t>
+  </si>
+  <si>
+    <t>Simple Cycle Test</t>
   </si>
 </sst>
 </file>
@@ -657,6 +657,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -670,12 +676,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1026,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1034,68 +1034,68 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
         <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1105,33 +1105,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>122</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="21">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1154,18 +1154,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1207,7 @@
         <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1221,7 +1221,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A66060-C34D-B74B-9573-D0BFE7F2808B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1250,120 +1250,120 @@
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+        <v>41</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+        <v>137</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -1402,7 +1402,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1416,54 +1416,54 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>140</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1474,10 +1474,10 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1488,10 +1488,10 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -1604,72 +1604,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1696,70 +1696,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1782,45 +1782,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1848,54 +1848,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>98</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>101</v>
-      </c>
-      <c r="H2" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1923,47 +1923,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="27" t="s">
         <v>152</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5C1333-2A9B-A447-B105-6F566030A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6606F3-9A58-E14F-B27B-2073FCD62D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43700" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="43700" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
     <sheet name="studyDesignEstimands" sheetId="8" r:id="rId8"/>
     <sheet name="studyDesignProcedures" sheetId="10" r:id="rId9"/>
-    <sheet name="configuration" sheetId="9" r:id="rId10"/>
+    <sheet name="studyDesignEncounters" sheetId="11" r:id="rId10"/>
+    <sheet name="configuration" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="173">
   <si>
     <t>Epoch</t>
   </si>
@@ -59,9 +60,6 @@
     <t>Cycle End Rule</t>
   </si>
   <si>
-    <t>Visit Label</t>
-  </si>
-  <si>
     <t>Day 1</t>
   </si>
   <si>
@@ -71,9 +69,6 @@
     <t>P: +14 Days</t>
   </si>
   <si>
-    <t>Visit Window</t>
-  </si>
-  <si>
     <t>-2..2 Days</t>
   </si>
   <si>
@@ -107,9 +102,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>BC/Profile</t>
-  </si>
-  <si>
     <t>Disease Progression</t>
   </si>
   <si>
@@ -516,6 +508,63 @@
   </si>
   <si>
     <t>Simple Cycle Test</t>
+  </si>
+  <si>
+    <t>encounterName</t>
+  </si>
+  <si>
+    <t>encounterDescription</t>
+  </si>
+  <si>
+    <t>encounterType</t>
+  </si>
+  <si>
+    <t>encounterEnvironmentalSetting</t>
+  </si>
+  <si>
+    <t>encounterContactModes</t>
+  </si>
+  <si>
+    <t>transitionStartRule</t>
+  </si>
+  <si>
+    <t>transitionEndRule</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>CLINIC</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>IEs passed</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Follow up</t>
+  </si>
+  <si>
+    <t>Subject identified</t>
+  </si>
+  <si>
+    <t>BC/Procedure/Timeline</t>
+  </si>
+  <si>
+    <t>Encounter xref</t>
+  </si>
+  <si>
+    <t>Window</t>
   </si>
 </sst>
 </file>
@@ -588,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -597,9 +646,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -645,18 +691,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -677,6 +714,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,132 +1050,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
         <v>107</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="B9" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C9" s="18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="E9" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="20" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="B10" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="C10" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="21">
+        <v>122</v>
+      </c>
+      <c r="G11" s="20">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1140,6 +1184,121 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF4C881-F99F-AB40-940B-2531415A94FC}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="27.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6879B0C-C67A-EA45-AA03-0AE5CE49C17A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1153,19 +1312,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>131</v>
+      <c r="A1" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>131</v>
+      <c r="A2" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1191,40 +1350,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>49</v>
+      <c r="F1" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A66060-C34D-B74B-9573-D0BFE7F2808B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1247,138 +1406,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B5" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B6" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1402,177 +1561,177 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="3" customWidth="1"/>
     <col min="4" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="B3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1603,73 +1762,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>54</v>
+      <c r="A1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1695,71 +1854,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1781,46 +1940,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="D2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1847,55 +2006,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>96</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1916,58 +2075,58 @@
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24" style="9" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="A1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>151</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6606F3-9A58-E14F-B27B-2073FCD62D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005B2BA4-7527-0042-87E8-1B2BABE65C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43700" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="43700" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="studyDesignEstimands" sheetId="8" r:id="rId8"/>
     <sheet name="studyDesignProcedures" sheetId="10" r:id="rId9"/>
     <sheet name="studyDesignEncounters" sheetId="11" r:id="rId10"/>
-    <sheet name="configuration" sheetId="9" r:id="rId11"/>
+    <sheet name="studyDesignElements" sheetId="12" r:id="rId11"/>
+    <sheet name="configuration" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="182">
   <si>
     <t>Epoch</t>
   </si>
@@ -180,9 +181,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>cell</t>
-  </si>
-  <si>
     <t>Placebo</t>
   </si>
   <si>
@@ -565,6 +563,36 @@
   </si>
   <si>
     <t>Window</t>
+  </si>
+  <si>
+    <t>studyElementName</t>
+  </si>
+  <si>
+    <t>studyElementDescription</t>
+  </si>
+  <si>
+    <t>EL1</t>
+  </si>
+  <si>
+    <t>EL2</t>
+  </si>
+  <si>
+    <t>Radomized</t>
+  </si>
+  <si>
+    <t>Follow Up Element</t>
+  </si>
+  <si>
+    <t>Treated</t>
+  </si>
+  <si>
+    <t>Leave Study</t>
+  </si>
+  <si>
+    <t>Treatment Element</t>
+  </si>
+  <si>
+    <t>Completed treatment</t>
   </si>
 </sst>
 </file>
@@ -700,27 +728,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,7 +1098,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1078,68 +1106,68 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1149,33 +1177,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>118</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="20">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1202,34 +1230,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="25" t="s">
         <v>159</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -1238,24 +1266,24 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1264,33 +1292,33 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1299,6 +1327,78 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5970CCBC-0EF3-C846-87F8-EE9D828BA735}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6879B0C-C67A-EA45-AA03-0AE5CE49C17A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1313,18 +1413,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1466,7 @@
         <v>31</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1380,7 +1480,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -1396,7 +1496,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1409,87 +1509,87 @@
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+        <v>133</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
@@ -1506,23 +1606,23 @@
         <v>43</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1561,7 +1661,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1575,54 +1675,54 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>138</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1633,10 +1733,10 @@
       <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1647,10 +1747,10 @@
       <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1675,23 +1775,23 @@
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -1704,14 +1804,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>170</v>
+      <c r="C9" s="25" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -1722,7 +1822,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -1763,72 +1863,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1855,70 +1955,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
         <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1941,45 +2041,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2007,54 +2107,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>93</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>94</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>95</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>96</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>97</v>
-      </c>
-      <c r="H2" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2082,47 +2182,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005B2BA4-7527-0042-87E8-1B2BABE65C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F635D3-A62C-9945-8C18-90F0A51382C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43700" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="43700" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="187">
   <si>
     <t>Epoch</t>
   </si>
@@ -593,6 +593,21 @@
   </si>
   <si>
     <t>Completed treatment</t>
+  </si>
+  <si>
+    <t>studyDesignName</t>
+  </si>
+  <si>
+    <t>studyDesignDescription</t>
+  </si>
+  <si>
+    <t>Epoch/Arms</t>
+  </si>
+  <si>
+    <t>Study Design 1</t>
+  </si>
+  <si>
+    <t>The main design for the study</t>
   </si>
 </sst>
 </file>
@@ -665,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -675,9 +690,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1078,7 +1090,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
@@ -1086,15 +1098,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
@@ -1102,7 +1114,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
@@ -1110,7 +1122,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B5" t="s">
@@ -1118,7 +1130,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B6" t="s">
@@ -1126,54 +1138,54 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>118</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1181,16 +1193,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>120</v>
       </c>
       <c r="E11" s="1">
@@ -1199,7 +1211,7 @@
       <c r="F11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1230,28 +1242,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1330,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5970CCBC-0EF3-C846-87F8-EE9D828BA735}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1343,19 +1355,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1412,7 +1424,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B1" t="s">
@@ -1420,7 +1432,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B2" t="s">
@@ -1450,22 +1462,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1493,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A66060-C34D-B74B-9573-D0BFE7F2808B}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1506,149 +1518,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B6:E6"/>
+  <mergeCells count="10">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1674,91 +1713,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1772,9 +1811,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="20" t="s">
         <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1788,9 +1827,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="21" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="20" t="s">
         <v>171</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1804,24 +1843,24 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1862,16 +1901,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1885,7 +1924,7 @@
       <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1913,7 +1952,7 @@
       <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1954,19 +1993,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1980,7 +2019,7 @@
       <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E2" t="s">
@@ -1997,7 +2036,7 @@
       <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E3" t="s">
@@ -2014,7 +2053,7 @@
       <c r="C4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E4" t="s">
@@ -2040,45 +2079,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2106,28 +2145,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2175,25 +2214,25 @@
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24" style="8" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2218,7 +2257,7 @@
       <c r="C3" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>141</v>
       </c>
       <c r="E3" t="s">
@@ -2226,7 +2265,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
